--- a/data/trans_bre/P37-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P37-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 3,8</t>
+          <t>-6,44; 3,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 1,58</t>
+          <t>-8,59; 1,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 3,53</t>
+          <t>-7,43; 3,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 4,57</t>
+          <t>-7,2; 4,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,45; 34,24</t>
+          <t>-39,42; 30,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-50,18; 13,67</t>
+          <t>-49,19; 16,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-40,86; 27,71</t>
+          <t>-41,32; 27,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 13,72</t>
+          <t>-17,61; 12,19</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,02; -4,44</t>
+          <t>-13,52; -4,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,08; -3,62</t>
+          <t>-14,47; -3,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 0,25</t>
+          <t>-8,96; 0,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,92; -0,57</t>
+          <t>-12,62; -0,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-72,97; -31,86</t>
+          <t>-72,97; -30,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-68,52; -21,57</t>
+          <t>-67,06; -21,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-55,88; 3,03</t>
+          <t>-57,24; 5,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,37; -1,91</t>
+          <t>-30,81; -2,51</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 6,37</t>
+          <t>-5,5; 6,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 0,18</t>
+          <t>-10,04; 0,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 8,06</t>
+          <t>-6,37; 7,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 37,32</t>
+          <t>4,8; 35,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,25; 57,92</t>
+          <t>-39,91; 60,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,37; 1,6</t>
+          <t>-52,27; 5,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,16; 52,76</t>
+          <t>-35,13; 49,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,04; 467,28</t>
+          <t>15,01; 446,31</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,65; -0,33</t>
+          <t>-6,41; -0,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,55; -4,16</t>
+          <t>-10,95; -4,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,81; -1,13</t>
+          <t>-7,84; -1,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 38,86</t>
+          <t>-4,07; 38,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,84; -2,02</t>
+          <t>-36,43; -0,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,28; -22,13</t>
+          <t>-52,16; -22,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,11; -6,66</t>
+          <t>-42,55; -10,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 127,31</t>
+          <t>-12,02; 116,58</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 4,82</t>
+          <t>-4,86; 4,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 5,88</t>
+          <t>-2,91; 5,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 2,39</t>
+          <t>-6,14; 2,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 10,43</t>
+          <t>-4,01; 10,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 43,03</t>
+          <t>-28,44; 39,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 36,87</t>
+          <t>-14,08; 37,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 15,54</t>
+          <t>-29,56; 16,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 42,21</t>
+          <t>-13,21; 43,61</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,85; 21,3</t>
+          <t>14,94; 21,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,91; 22,65</t>
+          <t>13,62; 23,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,15; 23,34</t>
+          <t>15,47; 23,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>34,54; 45,34</t>
+          <t>34,51; 45,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>230,15; 953,27</t>
+          <t>223,77; 915,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>108,59; 387,54</t>
+          <t>105,47; 421,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>167,7; 619,97</t>
+          <t>169,91; 689,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>295,11; 1568,37</t>
+          <t>303,57; 1602,46</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,62</t>
+          <t>0,31; 3,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,44</t>
+          <t>-1,23; 2,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 3,34</t>
+          <t>-0,21; 3,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,13; 21,94</t>
+          <t>4,69; 23,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,02; 27,85</t>
+          <t>2,56; 28,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 14,76</t>
+          <t>-6,55; 15,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 22,7</t>
+          <t>-1,25; 24,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,33; 87,99</t>
+          <t>15,09; 96,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P37-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P37-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
